--- a/data/5188.xlsx
+++ b/data/5188.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1217"/>
+  <dimension ref="A1:I1218"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43505,6 +43505,43 @@
         <v>400000</v>
       </c>
     </row>
+    <row r="1218">
+      <c r="A1218" t="n">
+        <v>1581379200</v>
+      </c>
+      <c r="B1218" t="inlineStr">
+        <is>
+          <t>2020-02-11</t>
+        </is>
+      </c>
+      <c r="C1218" t="inlineStr">
+        <is>
+          <t>5188</t>
+        </is>
+      </c>
+      <c r="D1218" t="inlineStr">
+        <is>
+          <t>CNOUHUA</t>
+        </is>
+      </c>
+      <c r="E1218" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="F1218" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="G1218" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="H1218" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="I1218" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5188.xlsx
+++ b/data/5188.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1218"/>
+  <dimension ref="A1:I1219"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43542,6 +43542,41 @@
         </is>
       </c>
     </row>
+    <row r="1219">
+      <c r="A1219" t="n">
+        <v>1581465600</v>
+      </c>
+      <c r="B1219" t="inlineStr">
+        <is>
+          <t>2020-02-12</t>
+        </is>
+      </c>
+      <c r="C1219" t="inlineStr">
+        <is>
+          <t>5188</t>
+        </is>
+      </c>
+      <c r="D1219" t="inlineStr">
+        <is>
+          <t>CNOUHUA</t>
+        </is>
+      </c>
+      <c r="E1219" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="F1219" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="G1219" t="n">
+        <v>0.025</v>
+      </c>
+      <c r="H1219" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="I1219" t="n">
+        <v>91000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5188.xlsx
+++ b/data/5188.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1219"/>
+  <dimension ref="A1:I1220"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43577,6 +43577,41 @@
         <v>91000</v>
       </c>
     </row>
+    <row r="1220">
+      <c r="A1220" t="n">
+        <v>1581552000</v>
+      </c>
+      <c r="B1220" t="inlineStr">
+        <is>
+          <t>2020-02-13</t>
+        </is>
+      </c>
+      <c r="C1220" t="inlineStr">
+        <is>
+          <t>5188</t>
+        </is>
+      </c>
+      <c r="D1220" t="inlineStr">
+        <is>
+          <t>CNOUHUA</t>
+        </is>
+      </c>
+      <c r="E1220" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="F1220" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="G1220" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="H1220" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="I1220" t="n">
+        <v>100000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5188.xlsx
+++ b/data/5188.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1220"/>
+  <dimension ref="A1:I1221"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43612,6 +43612,43 @@
         <v>100000</v>
       </c>
     </row>
+    <row r="1221">
+      <c r="A1221" t="n">
+        <v>1581638400</v>
+      </c>
+      <c r="B1221" t="inlineStr">
+        <is>
+          <t>2020-02-14</t>
+        </is>
+      </c>
+      <c r="C1221" t="inlineStr">
+        <is>
+          <t>5188</t>
+        </is>
+      </c>
+      <c r="D1221" t="inlineStr">
+        <is>
+          <t>CNOUHUA</t>
+        </is>
+      </c>
+      <c r="E1221" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="F1221" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="G1221" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="H1221" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="I1221" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5188.xlsx
+++ b/data/5188.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1221"/>
+  <dimension ref="A1:I1222"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43649,6 +43649,43 @@
         </is>
       </c>
     </row>
+    <row r="1222">
+      <c r="A1222" t="n">
+        <v>1581897600</v>
+      </c>
+      <c r="B1222" t="inlineStr">
+        <is>
+          <t>2020-02-17</t>
+        </is>
+      </c>
+      <c r="C1222" t="inlineStr">
+        <is>
+          <t>5188</t>
+        </is>
+      </c>
+      <c r="D1222" t="inlineStr">
+        <is>
+          <t>CNOUHUA</t>
+        </is>
+      </c>
+      <c r="E1222" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="F1222" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="G1222" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="H1222" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="I1222" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5188.xlsx
+++ b/data/5188.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1222"/>
+  <dimension ref="A1:I1223"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43686,6 +43686,43 @@
         </is>
       </c>
     </row>
+    <row r="1223">
+      <c r="A1223" t="n">
+        <v>1581984000</v>
+      </c>
+      <c r="B1223" t="inlineStr">
+        <is>
+          <t>2020-02-18</t>
+        </is>
+      </c>
+      <c r="C1223" t="inlineStr">
+        <is>
+          <t>5188</t>
+        </is>
+      </c>
+      <c r="D1223" t="inlineStr">
+        <is>
+          <t>CNOUHUA</t>
+        </is>
+      </c>
+      <c r="E1223" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="F1223" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="G1223" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="H1223" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="I1223" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5188.xlsx
+++ b/data/5188.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1223"/>
+  <dimension ref="A1:I1224"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43723,6 +43723,43 @@
         </is>
       </c>
     </row>
+    <row r="1224">
+      <c r="A1224" t="n">
+        <v>1582070400</v>
+      </c>
+      <c r="B1224" t="inlineStr">
+        <is>
+          <t>2020-02-19</t>
+        </is>
+      </c>
+      <c r="C1224" t="inlineStr">
+        <is>
+          <t>5188</t>
+        </is>
+      </c>
+      <c r="D1224" t="inlineStr">
+        <is>
+          <t>CNOUHUA</t>
+        </is>
+      </c>
+      <c r="E1224" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="F1224" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="G1224" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="H1224" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="I1224" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5188.xlsx
+++ b/data/5188.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1224"/>
+  <dimension ref="A1:I1225"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43760,6 +43760,41 @@
         </is>
       </c>
     </row>
+    <row r="1225">
+      <c r="A1225" t="n">
+        <v>1582156800</v>
+      </c>
+      <c r="B1225" t="inlineStr">
+        <is>
+          <t>2020-02-20</t>
+        </is>
+      </c>
+      <c r="C1225" t="inlineStr">
+        <is>
+          <t>5188</t>
+        </is>
+      </c>
+      <c r="D1225" t="inlineStr">
+        <is>
+          <t>CNOUHUA</t>
+        </is>
+      </c>
+      <c r="E1225" t="n">
+        <v>0.025</v>
+      </c>
+      <c r="F1225" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="G1225" t="n">
+        <v>0.025</v>
+      </c>
+      <c r="H1225" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="I1225" t="n">
+        <v>200000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5188.xlsx
+++ b/data/5188.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1225"/>
+  <dimension ref="A1:I1226"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43795,6 +43795,43 @@
         <v>200000</v>
       </c>
     </row>
+    <row r="1226">
+      <c r="A1226" t="n">
+        <v>1582243200</v>
+      </c>
+      <c r="B1226" t="inlineStr">
+        <is>
+          <t>2020-02-21</t>
+        </is>
+      </c>
+      <c r="C1226" t="inlineStr">
+        <is>
+          <t>5188</t>
+        </is>
+      </c>
+      <c r="D1226" t="inlineStr">
+        <is>
+          <t>CNOUHUA</t>
+        </is>
+      </c>
+      <c r="E1226" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="F1226" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="G1226" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="H1226" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="I1226" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5188.xlsx
+++ b/data/5188.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1226"/>
+  <dimension ref="A1:I1227"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43832,6 +43832,43 @@
         </is>
       </c>
     </row>
+    <row r="1227">
+      <c r="A1227" t="n">
+        <v>1582502400</v>
+      </c>
+      <c r="B1227" t="inlineStr">
+        <is>
+          <t>2020-02-24</t>
+        </is>
+      </c>
+      <c r="C1227" t="inlineStr">
+        <is>
+          <t>5188</t>
+        </is>
+      </c>
+      <c r="D1227" t="inlineStr">
+        <is>
+          <t>CNOUHUA</t>
+        </is>
+      </c>
+      <c r="E1227" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="F1227" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="G1227" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="H1227" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="I1227" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5188.xlsx
+++ b/data/5188.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1227"/>
+  <dimension ref="A1:I1228"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43869,6 +43869,41 @@
         </is>
       </c>
     </row>
+    <row r="1228">
+      <c r="A1228" t="n">
+        <v>1582588800</v>
+      </c>
+      <c r="B1228" t="inlineStr">
+        <is>
+          <t>2020-02-25</t>
+        </is>
+      </c>
+      <c r="C1228" t="inlineStr">
+        <is>
+          <t>5188</t>
+        </is>
+      </c>
+      <c r="D1228" t="inlineStr">
+        <is>
+          <t>CNOUHUA</t>
+        </is>
+      </c>
+      <c r="E1228" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="F1228" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="G1228" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="H1228" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="I1228" t="n">
+        <v>100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5188.xlsx
+++ b/data/5188.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1228"/>
+  <dimension ref="A1:I1229"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43904,6 +43904,43 @@
         <v>100</v>
       </c>
     </row>
+    <row r="1229">
+      <c r="A1229" t="n">
+        <v>1582675200</v>
+      </c>
+      <c r="B1229" t="inlineStr">
+        <is>
+          <t>2020-02-26</t>
+        </is>
+      </c>
+      <c r="C1229" t="inlineStr">
+        <is>
+          <t>5188</t>
+        </is>
+      </c>
+      <c r="D1229" t="inlineStr">
+        <is>
+          <t>CNOUHUA</t>
+        </is>
+      </c>
+      <c r="E1229" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="F1229" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="G1229" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="H1229" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="I1229" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5188.xlsx
+++ b/data/5188.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1229"/>
+  <dimension ref="A1:I1231"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43941,6 +43941,78 @@
         </is>
       </c>
     </row>
+    <row r="1230">
+      <c r="A1230" t="n">
+        <v>1582761600</v>
+      </c>
+      <c r="B1230" t="inlineStr">
+        <is>
+          <t>2020-02-27</t>
+        </is>
+      </c>
+      <c r="C1230" t="inlineStr">
+        <is>
+          <t>5188</t>
+        </is>
+      </c>
+      <c r="D1230" t="inlineStr">
+        <is>
+          <t>CNOUHUA</t>
+        </is>
+      </c>
+      <c r="E1230" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="F1230" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="G1230" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="H1230" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="I1230" t="n">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="1231">
+      <c r="A1231" t="n">
+        <v>1582848000</v>
+      </c>
+      <c r="B1231" t="inlineStr">
+        <is>
+          <t>2020-02-28</t>
+        </is>
+      </c>
+      <c r="C1231" t="inlineStr">
+        <is>
+          <t>5188</t>
+        </is>
+      </c>
+      <c r="D1231" t="inlineStr">
+        <is>
+          <t>CNOUHUA</t>
+        </is>
+      </c>
+      <c r="E1231" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="F1231" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="G1231" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="H1231" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="I1231" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5188.xlsx
+++ b/data/5188.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1231"/>
+  <dimension ref="A1:I1233"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44013,6 +44013,76 @@
         </is>
       </c>
     </row>
+    <row r="1232">
+      <c r="A1232" t="n">
+        <v>1583107200</v>
+      </c>
+      <c r="B1232" t="inlineStr">
+        <is>
+          <t>2020-03-02</t>
+        </is>
+      </c>
+      <c r="C1232" t="inlineStr">
+        <is>
+          <t>5188</t>
+        </is>
+      </c>
+      <c r="D1232" t="inlineStr">
+        <is>
+          <t>CNOUHUA</t>
+        </is>
+      </c>
+      <c r="E1232" t="n">
+        <v>0.025</v>
+      </c>
+      <c r="F1232" t="n">
+        <v>0.025</v>
+      </c>
+      <c r="G1232" t="n">
+        <v>0.025</v>
+      </c>
+      <c r="H1232" t="n">
+        <v>0.025</v>
+      </c>
+      <c r="I1232" t="n">
+        <v>125000</v>
+      </c>
+    </row>
+    <row r="1233">
+      <c r="A1233" t="n">
+        <v>1583193600</v>
+      </c>
+      <c r="B1233" t="inlineStr">
+        <is>
+          <t>2020-03-03</t>
+        </is>
+      </c>
+      <c r="C1233" t="inlineStr">
+        <is>
+          <t>5188</t>
+        </is>
+      </c>
+      <c r="D1233" t="inlineStr">
+        <is>
+          <t>CNOUHUA</t>
+        </is>
+      </c>
+      <c r="E1233" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="F1233" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="G1233" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="H1233" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="I1233" t="n">
+        <v>100000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5188.xlsx
+++ b/data/5188.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1233"/>
+  <dimension ref="A1:I1234"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44083,6 +44083,41 @@
         <v>100000</v>
       </c>
     </row>
+    <row r="1234">
+      <c r="A1234" t="n">
+        <v>1583280000</v>
+      </c>
+      <c r="B1234" t="inlineStr">
+        <is>
+          <t>2020-03-04</t>
+        </is>
+      </c>
+      <c r="C1234" t="inlineStr">
+        <is>
+          <t>5188</t>
+        </is>
+      </c>
+      <c r="D1234" t="inlineStr">
+        <is>
+          <t>CNOUHUA</t>
+        </is>
+      </c>
+      <c r="E1234" t="n">
+        <v>0.025</v>
+      </c>
+      <c r="F1234" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="G1234" t="n">
+        <v>0.025</v>
+      </c>
+      <c r="H1234" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="I1234" t="n">
+        <v>11000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5188.xlsx
+++ b/data/5188.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1234"/>
+  <dimension ref="A1:I1235"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44118,6 +44118,43 @@
         <v>11000</v>
       </c>
     </row>
+    <row r="1235">
+      <c r="A1235" t="n">
+        <v>1583366400</v>
+      </c>
+      <c r="B1235" t="inlineStr">
+        <is>
+          <t>2020-03-05</t>
+        </is>
+      </c>
+      <c r="C1235" t="inlineStr">
+        <is>
+          <t>5188</t>
+        </is>
+      </c>
+      <c r="D1235" t="inlineStr">
+        <is>
+          <t>CNOUHUA</t>
+        </is>
+      </c>
+      <c r="E1235" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="F1235" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="G1235" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="H1235" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="I1235" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5188.xlsx
+++ b/data/5188.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1235"/>
+  <dimension ref="A1:I1236"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44155,6 +44155,43 @@
         </is>
       </c>
     </row>
+    <row r="1236">
+      <c r="A1236" t="n">
+        <v>1583712000</v>
+      </c>
+      <c r="B1236" t="inlineStr">
+        <is>
+          <t>2020-03-09</t>
+        </is>
+      </c>
+      <c r="C1236" t="inlineStr">
+        <is>
+          <t>5188</t>
+        </is>
+      </c>
+      <c r="D1236" t="inlineStr">
+        <is>
+          <t>CNOUHUA</t>
+        </is>
+      </c>
+      <c r="E1236" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="F1236" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="G1236" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="H1236" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="I1236" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5188.xlsx
+++ b/data/5188.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1236"/>
+  <dimension ref="A1:I1238"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44192,6 +44192,78 @@
         </is>
       </c>
     </row>
+    <row r="1237">
+      <c r="A1237" t="n">
+        <v>1583798400</v>
+      </c>
+      <c r="B1237" t="inlineStr">
+        <is>
+          <t>2020-03-10</t>
+        </is>
+      </c>
+      <c r="C1237" t="inlineStr">
+        <is>
+          <t>5188</t>
+        </is>
+      </c>
+      <c r="D1237" t="inlineStr">
+        <is>
+          <t>CNOUHUA</t>
+        </is>
+      </c>
+      <c r="E1237" t="n">
+        <v>0.025</v>
+      </c>
+      <c r="F1237" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="G1237" t="n">
+        <v>0.025</v>
+      </c>
+      <c r="H1237" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="I1237" t="n">
+        <v>2022100</v>
+      </c>
+    </row>
+    <row r="1238">
+      <c r="A1238" t="n">
+        <v>1583884800</v>
+      </c>
+      <c r="B1238" t="inlineStr">
+        <is>
+          <t>2020-03-11</t>
+        </is>
+      </c>
+      <c r="C1238" t="inlineStr">
+        <is>
+          <t>5188</t>
+        </is>
+      </c>
+      <c r="D1238" t="inlineStr">
+        <is>
+          <t>CNOUHUA</t>
+        </is>
+      </c>
+      <c r="E1238" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="F1238" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="G1238" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="H1238" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="I1238" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5188.xlsx
+++ b/data/5188.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1238"/>
+  <dimension ref="A1:I1239"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44264,6 +44264,43 @@
         </is>
       </c>
     </row>
+    <row r="1239">
+      <c r="A1239" t="n">
+        <v>1583971200</v>
+      </c>
+      <c r="B1239" t="inlineStr">
+        <is>
+          <t>2020-03-12</t>
+        </is>
+      </c>
+      <c r="C1239" t="inlineStr">
+        <is>
+          <t>5188</t>
+        </is>
+      </c>
+      <c r="D1239" t="inlineStr">
+        <is>
+          <t>CNOUHUA</t>
+        </is>
+      </c>
+      <c r="E1239" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="F1239" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="G1239" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="H1239" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="I1239" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5188.xlsx
+++ b/data/5188.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1239"/>
+  <dimension ref="A1:I1240"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44301,6 +44301,41 @@
         </is>
       </c>
     </row>
+    <row r="1240">
+      <c r="A1240" t="n">
+        <v>1584057600</v>
+      </c>
+      <c r="B1240" t="inlineStr">
+        <is>
+          <t>2020-03-13</t>
+        </is>
+      </c>
+      <c r="C1240" t="inlineStr">
+        <is>
+          <t>5188</t>
+        </is>
+      </c>
+      <c r="D1240" t="inlineStr">
+        <is>
+          <t>CNOUHUA</t>
+        </is>
+      </c>
+      <c r="E1240" t="n">
+        <v>0.025</v>
+      </c>
+      <c r="F1240" t="n">
+        <v>0.025</v>
+      </c>
+      <c r="G1240" t="n">
+        <v>0.025</v>
+      </c>
+      <c r="H1240" t="n">
+        <v>0.025</v>
+      </c>
+      <c r="I1240" t="n">
+        <v>412900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5188.xlsx
+++ b/data/5188.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2273"/>
+  <dimension ref="A1:I2274"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -80491,6 +80491,41 @@
         <v>412900</v>
       </c>
     </row>
+    <row r="2274">
+      <c r="A2274" t="n">
+        <v>1584316800</v>
+      </c>
+      <c r="B2274" t="inlineStr">
+        <is>
+          <t>2020-03-16</t>
+        </is>
+      </c>
+      <c r="C2274" t="inlineStr">
+        <is>
+          <t>5188</t>
+        </is>
+      </c>
+      <c r="D2274" t="inlineStr">
+        <is>
+          <t>CNOUHUA</t>
+        </is>
+      </c>
+      <c r="E2274" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="F2274" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G2274" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="H2274" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="I2274" t="n">
+        <v>95000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5188.xlsx
+++ b/data/5188.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2274"/>
+  <dimension ref="A1:I2275"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -80526,6 +80526,41 @@
         <v>95000</v>
       </c>
     </row>
+    <row r="2275">
+      <c r="A2275" t="n">
+        <v>1584403200</v>
+      </c>
+      <c r="B2275" t="inlineStr">
+        <is>
+          <t>2020-03-17</t>
+        </is>
+      </c>
+      <c r="C2275" t="inlineStr">
+        <is>
+          <t>5188</t>
+        </is>
+      </c>
+      <c r="D2275" t="inlineStr">
+        <is>
+          <t>CNOUHUA</t>
+        </is>
+      </c>
+      <c r="E2275" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="F2275" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G2275" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="H2275" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="I2275" t="n">
+        <v>285000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5188.xlsx
+++ b/data/5188.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2275"/>
+  <dimension ref="A1:I2276"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -80561,6 +80561,41 @@
         <v>285000</v>
       </c>
     </row>
+    <row r="2276">
+      <c r="A2276" t="n">
+        <v>1584489600</v>
+      </c>
+      <c r="B2276" t="inlineStr">
+        <is>
+          <t>2020-03-18</t>
+        </is>
+      </c>
+      <c r="C2276" t="inlineStr">
+        <is>
+          <t>5188</t>
+        </is>
+      </c>
+      <c r="D2276" t="inlineStr">
+        <is>
+          <t>CNOUHUA</t>
+        </is>
+      </c>
+      <c r="E2276" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="F2276" t="n">
+        <v>0.025</v>
+      </c>
+      <c r="G2276" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="H2276" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="I2276" t="n">
+        <v>700000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5188.xlsx
+++ b/data/5188.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2276"/>
+  <dimension ref="A1:I2277"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -80596,6 +80596,41 @@
         <v>700000</v>
       </c>
     </row>
+    <row r="2277">
+      <c r="A2277" t="n">
+        <v>1584576000</v>
+      </c>
+      <c r="B2277" t="inlineStr">
+        <is>
+          <t>2020-03-19</t>
+        </is>
+      </c>
+      <c r="C2277" t="inlineStr">
+        <is>
+          <t>5188</t>
+        </is>
+      </c>
+      <c r="D2277" t="inlineStr">
+        <is>
+          <t>CNOUHUA</t>
+        </is>
+      </c>
+      <c r="E2277" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="F2277" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G2277" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="H2277" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="I2277" t="n">
+        <v>364000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5188.xlsx
+++ b/data/5188.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2277"/>
+  <dimension ref="A1:I2278"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -80631,6 +80631,41 @@
         <v>364000</v>
       </c>
     </row>
+    <row r="2278">
+      <c r="A2278" t="n">
+        <v>1584662400</v>
+      </c>
+      <c r="B2278" t="inlineStr">
+        <is>
+          <t>2020-03-20</t>
+        </is>
+      </c>
+      <c r="C2278" t="inlineStr">
+        <is>
+          <t>5188</t>
+        </is>
+      </c>
+      <c r="D2278" t="inlineStr">
+        <is>
+          <t>CNOUHUA</t>
+        </is>
+      </c>
+      <c r="E2278" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="F2278" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G2278" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="H2278" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="I2278" t="n">
+        <v>50000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5188.xlsx
+++ b/data/5188.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2278"/>
+  <dimension ref="A1:I2279"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -80666,6 +80666,43 @@
         <v>50000</v>
       </c>
     </row>
+    <row r="2279">
+      <c r="A2279" t="n">
+        <v>1585008000</v>
+      </c>
+      <c r="B2279" t="inlineStr">
+        <is>
+          <t>2020-03-24</t>
+        </is>
+      </c>
+      <c r="C2279" t="inlineStr">
+        <is>
+          <t>5188</t>
+        </is>
+      </c>
+      <c r="D2279" t="inlineStr">
+        <is>
+          <t>CNOUHUA</t>
+        </is>
+      </c>
+      <c r="E2279" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="F2279" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G2279" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="H2279" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="I2279" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5188.xlsx
+++ b/data/5188.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2279"/>
+  <dimension ref="A1:I2280"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -80703,6 +80703,43 @@
         </is>
       </c>
     </row>
+    <row r="2280">
+      <c r="A2280" t="n">
+        <v>1585094400</v>
+      </c>
+      <c r="B2280" t="inlineStr">
+        <is>
+          <t>2020-03-25</t>
+        </is>
+      </c>
+      <c r="C2280" t="inlineStr">
+        <is>
+          <t>5188</t>
+        </is>
+      </c>
+      <c r="D2280" t="inlineStr">
+        <is>
+          <t>CNOUHUA</t>
+        </is>
+      </c>
+      <c r="E2280" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="F2280" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G2280" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="H2280" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="I2280" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5188.xlsx
+++ b/data/5188.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2280"/>
+  <dimension ref="A1:I2281"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -80740,6 +80740,41 @@
         </is>
       </c>
     </row>
+    <row r="2281">
+      <c r="A2281" t="n">
+        <v>1585180800</v>
+      </c>
+      <c r="B2281" t="inlineStr">
+        <is>
+          <t>2020-03-26</t>
+        </is>
+      </c>
+      <c r="C2281" t="inlineStr">
+        <is>
+          <t>5188</t>
+        </is>
+      </c>
+      <c r="D2281" t="inlineStr">
+        <is>
+          <t>CNOUHUA</t>
+        </is>
+      </c>
+      <c r="E2281" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="F2281" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G2281" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="H2281" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="I2281" t="n">
+        <v>50000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5188.xlsx
+++ b/data/5188.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2281"/>
+  <dimension ref="A1:I2282"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -80775,6 +80775,43 @@
         <v>50000</v>
       </c>
     </row>
+    <row r="2282">
+      <c r="A2282" t="n">
+        <v>1585267200</v>
+      </c>
+      <c r="B2282" t="inlineStr">
+        <is>
+          <t>2020-03-27</t>
+        </is>
+      </c>
+      <c r="C2282" t="inlineStr">
+        <is>
+          <t>5188</t>
+        </is>
+      </c>
+      <c r="D2282" t="inlineStr">
+        <is>
+          <t>CNOUHUA</t>
+        </is>
+      </c>
+      <c r="E2282" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="F2282" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G2282" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="H2282" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="I2282" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5188.xlsx
+++ b/data/5188.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2282"/>
+  <dimension ref="A1:I2283"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -80812,6 +80812,43 @@
         </is>
       </c>
     </row>
+    <row r="2283">
+      <c r="A2283" t="n">
+        <v>1585526400</v>
+      </c>
+      <c r="B2283" t="inlineStr">
+        <is>
+          <t>2020-03-30</t>
+        </is>
+      </c>
+      <c r="C2283" t="inlineStr">
+        <is>
+          <t>5188</t>
+        </is>
+      </c>
+      <c r="D2283" t="inlineStr">
+        <is>
+          <t>CNOUHUA</t>
+        </is>
+      </c>
+      <c r="E2283" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="F2283" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G2283" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="H2283" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="I2283" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5188.xlsx
+++ b/data/5188.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2283"/>
+  <dimension ref="A1:I2284"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -80849,6 +80849,43 @@
         </is>
       </c>
     </row>
+    <row r="2284">
+      <c r="A2284" t="n">
+        <v>1585612800</v>
+      </c>
+      <c r="B2284" t="inlineStr">
+        <is>
+          <t>2020-03-31</t>
+        </is>
+      </c>
+      <c r="C2284" t="inlineStr">
+        <is>
+          <t>5188</t>
+        </is>
+      </c>
+      <c r="D2284" t="inlineStr">
+        <is>
+          <t>CNOUHUA</t>
+        </is>
+      </c>
+      <c r="E2284" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="F2284" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G2284" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="H2284" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="I2284" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5188.xlsx
+++ b/data/5188.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2284"/>
+  <dimension ref="A1:I2285"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -80886,6 +80886,43 @@
         </is>
       </c>
     </row>
+    <row r="2285">
+      <c r="A2285" t="n">
+        <v>1585699200</v>
+      </c>
+      <c r="B2285" t="inlineStr">
+        <is>
+          <t>2020-04-01</t>
+        </is>
+      </c>
+      <c r="C2285" t="inlineStr">
+        <is>
+          <t>5188</t>
+        </is>
+      </c>
+      <c r="D2285" t="inlineStr">
+        <is>
+          <t>CNOUHUA</t>
+        </is>
+      </c>
+      <c r="E2285" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="F2285" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G2285" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="H2285" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="I2285" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5188.xlsx
+++ b/data/5188.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2285"/>
+  <dimension ref="A1:I2286"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -80923,6 +80923,43 @@
         </is>
       </c>
     </row>
+    <row r="2286">
+      <c r="A2286" t="n">
+        <v>1585785600</v>
+      </c>
+      <c r="B2286" t="inlineStr">
+        <is>
+          <t>2020-04-02</t>
+        </is>
+      </c>
+      <c r="C2286" t="inlineStr">
+        <is>
+          <t>5188</t>
+        </is>
+      </c>
+      <c r="D2286" t="inlineStr">
+        <is>
+          <t>CNOUHUA</t>
+        </is>
+      </c>
+      <c r="E2286" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="F2286" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G2286" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="H2286" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="I2286" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5188.xlsx
+++ b/data/5188.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2286"/>
+  <dimension ref="A1:I2287"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -80960,6 +80960,43 @@
         </is>
       </c>
     </row>
+    <row r="2287">
+      <c r="A2287" t="n">
+        <v>1585872000</v>
+      </c>
+      <c r="B2287" t="inlineStr">
+        <is>
+          <t>2020-04-03</t>
+        </is>
+      </c>
+      <c r="C2287" t="inlineStr">
+        <is>
+          <t>5188</t>
+        </is>
+      </c>
+      <c r="D2287" t="inlineStr">
+        <is>
+          <t>CNOUHUA</t>
+        </is>
+      </c>
+      <c r="E2287" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="F2287" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G2287" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="H2287" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="I2287" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5188.xlsx
+++ b/data/5188.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2287"/>
+  <dimension ref="A1:I2288"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -80997,6 +80997,43 @@
         </is>
       </c>
     </row>
+    <row r="2288">
+      <c r="A2288" t="n">
+        <v>1586131200</v>
+      </c>
+      <c r="B2288" t="inlineStr">
+        <is>
+          <t>2020-04-06</t>
+        </is>
+      </c>
+      <c r="C2288" t="inlineStr">
+        <is>
+          <t>5188</t>
+        </is>
+      </c>
+      <c r="D2288" t="inlineStr">
+        <is>
+          <t>CNOUHUA</t>
+        </is>
+      </c>
+      <c r="E2288" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="F2288" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G2288" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="H2288" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="I2288" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5188.xlsx
+++ b/data/5188.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2288"/>
+  <dimension ref="A1:I2289"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -81034,6 +81034,41 @@
         </is>
       </c>
     </row>
+    <row r="2289">
+      <c r="A2289" t="n">
+        <v>1586217600</v>
+      </c>
+      <c r="B2289" t="inlineStr">
+        <is>
+          <t>2020-04-07</t>
+        </is>
+      </c>
+      <c r="C2289" t="inlineStr">
+        <is>
+          <t>5188</t>
+        </is>
+      </c>
+      <c r="D2289" t="inlineStr">
+        <is>
+          <t>CNOUHUA</t>
+        </is>
+      </c>
+      <c r="E2289" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="F2289" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G2289" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="H2289" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="I2289" t="n">
+        <v>61000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5188.xlsx
+++ b/data/5188.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2289"/>
+  <dimension ref="A1:I2290"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -81069,6 +81069,41 @@
         <v>61000</v>
       </c>
     </row>
+    <row r="2290">
+      <c r="A2290" t="n">
+        <v>1586304000</v>
+      </c>
+      <c r="B2290" t="inlineStr">
+        <is>
+          <t>2020-04-08</t>
+        </is>
+      </c>
+      <c r="C2290" t="inlineStr">
+        <is>
+          <t>5188</t>
+        </is>
+      </c>
+      <c r="D2290" t="inlineStr">
+        <is>
+          <t>CNOUHUA</t>
+        </is>
+      </c>
+      <c r="E2290" t="n">
+        <v>0.025</v>
+      </c>
+      <c r="F2290" t="n">
+        <v>0.025</v>
+      </c>
+      <c r="G2290" t="n">
+        <v>0.025</v>
+      </c>
+      <c r="H2290" t="n">
+        <v>0.025</v>
+      </c>
+      <c r="I2290" t="n">
+        <v>164000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5188.xlsx
+++ b/data/5188.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2290"/>
+  <dimension ref="A1:I2291"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -81104,6 +81104,41 @@
         <v>164000</v>
       </c>
     </row>
+    <row r="2291">
+      <c r="A2291" t="n">
+        <v>1586390400</v>
+      </c>
+      <c r="B2291" t="inlineStr">
+        <is>
+          <t>2020-04-09</t>
+        </is>
+      </c>
+      <c r="C2291" t="inlineStr">
+        <is>
+          <t>5188</t>
+        </is>
+      </c>
+      <c r="D2291" t="inlineStr">
+        <is>
+          <t>CNOUHUA</t>
+        </is>
+      </c>
+      <c r="E2291" t="n">
+        <v>0.025</v>
+      </c>
+      <c r="F2291" t="n">
+        <v>0.025</v>
+      </c>
+      <c r="G2291" t="n">
+        <v>0.025</v>
+      </c>
+      <c r="H2291" t="n">
+        <v>0.025</v>
+      </c>
+      <c r="I2291" t="n">
+        <v>156200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5188.xlsx
+++ b/data/5188.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2291"/>
+  <dimension ref="A1:I2292"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -81139,6 +81139,43 @@
         <v>156200</v>
       </c>
     </row>
+    <row r="2292">
+      <c r="A2292" t="n">
+        <v>1586476800</v>
+      </c>
+      <c r="B2292" t="inlineStr">
+        <is>
+          <t>2020-04-10</t>
+        </is>
+      </c>
+      <c r="C2292" t="inlineStr">
+        <is>
+          <t>5188</t>
+        </is>
+      </c>
+      <c r="D2292" t="inlineStr">
+        <is>
+          <t>CNOUHUA</t>
+        </is>
+      </c>
+      <c r="E2292" t="n">
+        <v>0.025</v>
+      </c>
+      <c r="F2292" t="n">
+        <v>0.025</v>
+      </c>
+      <c r="G2292" t="n">
+        <v>0.025</v>
+      </c>
+      <c r="H2292" t="n">
+        <v>0.025</v>
+      </c>
+      <c r="I2292" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5188.xlsx
+++ b/data/5188.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2292"/>
+  <dimension ref="A1:I2293"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -81176,6 +81176,43 @@
         </is>
       </c>
     </row>
+    <row r="2293">
+      <c r="A2293" t="n">
+        <v>1586736000</v>
+      </c>
+      <c r="B2293" t="inlineStr">
+        <is>
+          <t>2020-04-13</t>
+        </is>
+      </c>
+      <c r="C2293" t="inlineStr">
+        <is>
+          <t>5188</t>
+        </is>
+      </c>
+      <c r="D2293" t="inlineStr">
+        <is>
+          <t>CNOUHUA</t>
+        </is>
+      </c>
+      <c r="E2293" t="n">
+        <v>0.025</v>
+      </c>
+      <c r="F2293" t="n">
+        <v>0.025</v>
+      </c>
+      <c r="G2293" t="n">
+        <v>0.025</v>
+      </c>
+      <c r="H2293" t="n">
+        <v>0.025</v>
+      </c>
+      <c r="I2293" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5188.xlsx
+++ b/data/5188.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2293"/>
+  <dimension ref="A1:I2294"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -81213,6 +81213,43 @@
         </is>
       </c>
     </row>
+    <row r="2294">
+      <c r="A2294" t="n">
+        <v>1586822400</v>
+      </c>
+      <c r="B2294" t="inlineStr">
+        <is>
+          <t>2020-04-14</t>
+        </is>
+      </c>
+      <c r="C2294" t="inlineStr">
+        <is>
+          <t>5188</t>
+        </is>
+      </c>
+      <c r="D2294" t="inlineStr">
+        <is>
+          <t>CNOUHUA</t>
+        </is>
+      </c>
+      <c r="E2294" t="n">
+        <v>0.025</v>
+      </c>
+      <c r="F2294" t="n">
+        <v>0.025</v>
+      </c>
+      <c r="G2294" t="n">
+        <v>0.025</v>
+      </c>
+      <c r="H2294" t="n">
+        <v>0.025</v>
+      </c>
+      <c r="I2294" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5188.xlsx
+++ b/data/5188.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2294"/>
+  <dimension ref="A1:I2295"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -81250,6 +81250,41 @@
         </is>
       </c>
     </row>
+    <row r="2295">
+      <c r="A2295" t="n">
+        <v>1586908800</v>
+      </c>
+      <c r="B2295" t="inlineStr">
+        <is>
+          <t>2020-04-15</t>
+        </is>
+      </c>
+      <c r="C2295" t="inlineStr">
+        <is>
+          <t>5188</t>
+        </is>
+      </c>
+      <c r="D2295" t="inlineStr">
+        <is>
+          <t>CNOUHUA</t>
+        </is>
+      </c>
+      <c r="E2295" t="n">
+        <v>0.025</v>
+      </c>
+      <c r="F2295" t="n">
+        <v>0.025</v>
+      </c>
+      <c r="G2295" t="n">
+        <v>0.025</v>
+      </c>
+      <c r="H2295" t="n">
+        <v>0.025</v>
+      </c>
+      <c r="I2295" t="n">
+        <v>310000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5188.xlsx
+++ b/data/5188.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2295"/>
+  <dimension ref="A1:I2296"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -81285,6 +81285,41 @@
         <v>310000</v>
       </c>
     </row>
+    <row r="2296">
+      <c r="A2296" t="n">
+        <v>1586995200</v>
+      </c>
+      <c r="B2296" t="inlineStr">
+        <is>
+          <t>2020-04-16</t>
+        </is>
+      </c>
+      <c r="C2296" t="inlineStr">
+        <is>
+          <t>5188</t>
+        </is>
+      </c>
+      <c r="D2296" t="inlineStr">
+        <is>
+          <t>CNOUHUA</t>
+        </is>
+      </c>
+      <c r="E2296" t="n">
+        <v>0.025</v>
+      </c>
+      <c r="F2296" t="n">
+        <v>0.025</v>
+      </c>
+      <c r="G2296" t="n">
+        <v>0.025</v>
+      </c>
+      <c r="H2296" t="n">
+        <v>0.025</v>
+      </c>
+      <c r="I2296" t="n">
+        <v>712000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5188.xlsx
+++ b/data/5188.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2296"/>
+  <dimension ref="A1:I2297"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -81320,6 +81320,41 @@
         <v>712000</v>
       </c>
     </row>
+    <row r="2297">
+      <c r="A2297" t="n">
+        <v>1587081600</v>
+      </c>
+      <c r="B2297" t="inlineStr">
+        <is>
+          <t>2020-04-17</t>
+        </is>
+      </c>
+      <c r="C2297" t="inlineStr">
+        <is>
+          <t>5188</t>
+        </is>
+      </c>
+      <c r="D2297" t="inlineStr">
+        <is>
+          <t>CNOUHUA</t>
+        </is>
+      </c>
+      <c r="E2297" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="F2297" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="G2297" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="H2297" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="I2297" t="n">
+        <v>1742200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5188.xlsx
+++ b/data/5188.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2297"/>
+  <dimension ref="A1:I2299"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -81355,6 +81355,78 @@
         <v>1742200</v>
       </c>
     </row>
+    <row r="2298">
+      <c r="A2298" t="n">
+        <v>1587340800</v>
+      </c>
+      <c r="B2298" t="inlineStr">
+        <is>
+          <t>2020-04-20</t>
+        </is>
+      </c>
+      <c r="C2298" t="inlineStr">
+        <is>
+          <t>5188</t>
+        </is>
+      </c>
+      <c r="D2298" t="inlineStr">
+        <is>
+          <t>CNOUHUA</t>
+        </is>
+      </c>
+      <c r="E2298" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="F2298" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="G2298" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="H2298" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="I2298" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="2299">
+      <c r="A2299" t="n">
+        <v>1587427200</v>
+      </c>
+      <c r="B2299" t="inlineStr">
+        <is>
+          <t>2020-04-21</t>
+        </is>
+      </c>
+      <c r="C2299" t="inlineStr">
+        <is>
+          <t>5188</t>
+        </is>
+      </c>
+      <c r="D2299" t="inlineStr">
+        <is>
+          <t>CNOUHUA</t>
+        </is>
+      </c>
+      <c r="E2299" t="n">
+        <v>0.025</v>
+      </c>
+      <c r="F2299" t="n">
+        <v>0.025</v>
+      </c>
+      <c r="G2299" t="n">
+        <v>0.025</v>
+      </c>
+      <c r="H2299" t="n">
+        <v>0.025</v>
+      </c>
+      <c r="I2299" t="n">
+        <v>340000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5188.xlsx
+++ b/data/5188.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2299"/>
+  <dimension ref="A1:I2300"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -81427,6 +81427,43 @@
         <v>340000</v>
       </c>
     </row>
+    <row r="2300">
+      <c r="A2300" t="n">
+        <v>1587513600</v>
+      </c>
+      <c r="B2300" t="inlineStr">
+        <is>
+          <t>2020-04-22</t>
+        </is>
+      </c>
+      <c r="C2300" t="inlineStr">
+        <is>
+          <t>5188</t>
+        </is>
+      </c>
+      <c r="D2300" t="inlineStr">
+        <is>
+          <t>CNOUHUA</t>
+        </is>
+      </c>
+      <c r="E2300" t="n">
+        <v>0.025</v>
+      </c>
+      <c r="F2300" t="n">
+        <v>0.025</v>
+      </c>
+      <c r="G2300" t="n">
+        <v>0.025</v>
+      </c>
+      <c r="H2300" t="n">
+        <v>0.025</v>
+      </c>
+      <c r="I2300" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5188.xlsx
+++ b/data/5188.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2300"/>
+  <dimension ref="A1:I2303"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -81464,6 +81464,111 @@
         </is>
       </c>
     </row>
+    <row r="2301">
+      <c r="A2301" t="n">
+        <v>1587600000</v>
+      </c>
+      <c r="B2301" t="inlineStr">
+        <is>
+          <t>2020-04-23</t>
+        </is>
+      </c>
+      <c r="C2301" t="inlineStr">
+        <is>
+          <t>5188</t>
+        </is>
+      </c>
+      <c r="D2301" t="inlineStr">
+        <is>
+          <t>CNOUHUA</t>
+        </is>
+      </c>
+      <c r="E2301" t="n">
+        <v>0.025</v>
+      </c>
+      <c r="F2301" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="G2301" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="H2301" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="I2301" t="n">
+        <v>606100</v>
+      </c>
+    </row>
+    <row r="2302">
+      <c r="A2302" t="n">
+        <v>1587686400</v>
+      </c>
+      <c r="B2302" t="inlineStr">
+        <is>
+          <t>2020-04-24</t>
+        </is>
+      </c>
+      <c r="C2302" t="inlineStr">
+        <is>
+          <t>5188</t>
+        </is>
+      </c>
+      <c r="D2302" t="inlineStr">
+        <is>
+          <t>CNOUHUA</t>
+        </is>
+      </c>
+      <c r="E2302" t="n">
+        <v>0.025</v>
+      </c>
+      <c r="F2302" t="n">
+        <v>0.025</v>
+      </c>
+      <c r="G2302" t="n">
+        <v>0.025</v>
+      </c>
+      <c r="H2302" t="n">
+        <v>0.025</v>
+      </c>
+      <c r="I2302" t="n">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="2303">
+      <c r="A2303" t="n">
+        <v>1587945600</v>
+      </c>
+      <c r="B2303" t="inlineStr">
+        <is>
+          <t>2020-04-27</t>
+        </is>
+      </c>
+      <c r="C2303" t="inlineStr">
+        <is>
+          <t>5188</t>
+        </is>
+      </c>
+      <c r="D2303" t="inlineStr">
+        <is>
+          <t>CNOUHUA</t>
+        </is>
+      </c>
+      <c r="E2303" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="F2303" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="G2303" t="n">
+        <v>0.025</v>
+      </c>
+      <c r="H2303" t="n">
+        <v>0.025</v>
+      </c>
+      <c r="I2303" t="n">
+        <v>70000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5188.xlsx
+++ b/data/5188.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2303"/>
+  <dimension ref="A1:I2304"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -81569,6 +81569,41 @@
         <v>70000</v>
       </c>
     </row>
+    <row r="2304">
+      <c r="A2304" t="n">
+        <v>1588032000</v>
+      </c>
+      <c r="B2304" t="inlineStr">
+        <is>
+          <t>2020-04-28</t>
+        </is>
+      </c>
+      <c r="C2304" t="inlineStr">
+        <is>
+          <t>5188</t>
+        </is>
+      </c>
+      <c r="D2304" t="inlineStr">
+        <is>
+          <t>CNOUHUA</t>
+        </is>
+      </c>
+      <c r="E2304" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="F2304" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="G2304" t="n">
+        <v>0.025</v>
+      </c>
+      <c r="H2304" t="n">
+        <v>0.025</v>
+      </c>
+      <c r="I2304" t="n">
+        <v>475500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5188.xlsx
+++ b/data/5188.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2304"/>
+  <dimension ref="A1:I2305"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -81604,6 +81604,41 @@
         <v>475500</v>
       </c>
     </row>
+    <row r="2305">
+      <c r="A2305" t="n">
+        <v>1588118400</v>
+      </c>
+      <c r="B2305" t="inlineStr">
+        <is>
+          <t>2020-04-29</t>
+        </is>
+      </c>
+      <c r="C2305" t="inlineStr">
+        <is>
+          <t>5188</t>
+        </is>
+      </c>
+      <c r="D2305" t="inlineStr">
+        <is>
+          <t>CNOUHUA</t>
+        </is>
+      </c>
+      <c r="E2305" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="F2305" t="n">
+        <v>0.025</v>
+      </c>
+      <c r="G2305" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="H2305" t="n">
+        <v>0.025</v>
+      </c>
+      <c r="I2305" t="n">
+        <v>149500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5188.xlsx
+++ b/data/5188.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2305"/>
+  <dimension ref="A1:I2308"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -81639,6 +81639,115 @@
         <v>149500</v>
       </c>
     </row>
+    <row r="2306">
+      <c r="A2306" t="n">
+        <v>1588204800</v>
+      </c>
+      <c r="B2306" t="inlineStr">
+        <is>
+          <t>2020-04-30</t>
+        </is>
+      </c>
+      <c r="C2306" t="inlineStr">
+        <is>
+          <t>5188</t>
+        </is>
+      </c>
+      <c r="D2306" t="inlineStr">
+        <is>
+          <t>CNOUHUA</t>
+        </is>
+      </c>
+      <c r="E2306" t="n">
+        <v>0.025</v>
+      </c>
+      <c r="F2306" t="n">
+        <v>0.025</v>
+      </c>
+      <c r="G2306" t="n">
+        <v>0.025</v>
+      </c>
+      <c r="H2306" t="n">
+        <v>0.025</v>
+      </c>
+      <c r="I2306" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="2307">
+      <c r="A2307" t="n">
+        <v>1588550400</v>
+      </c>
+      <c r="B2307" t="inlineStr">
+        <is>
+          <t>2020-05-04</t>
+        </is>
+      </c>
+      <c r="C2307" t="inlineStr">
+        <is>
+          <t>5188</t>
+        </is>
+      </c>
+      <c r="D2307" t="inlineStr">
+        <is>
+          <t>CNOUHUA</t>
+        </is>
+      </c>
+      <c r="E2307" t="n">
+        <v>0.025</v>
+      </c>
+      <c r="F2307" t="n">
+        <v>0.025</v>
+      </c>
+      <c r="G2307" t="n">
+        <v>0.025</v>
+      </c>
+      <c r="H2307" t="n">
+        <v>0.025</v>
+      </c>
+      <c r="I2307" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="2308">
+      <c r="A2308" t="n">
+        <v>1588636800</v>
+      </c>
+      <c r="B2308" t="inlineStr">
+        <is>
+          <t>2020-05-05</t>
+        </is>
+      </c>
+      <c r="C2308" t="inlineStr">
+        <is>
+          <t>5188</t>
+        </is>
+      </c>
+      <c r="D2308" t="inlineStr">
+        <is>
+          <t>CNOUHUA</t>
+        </is>
+      </c>
+      <c r="E2308" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="F2308" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="G2308" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="H2308" t="n">
+        <v>0.035</v>
+      </c>
+      <c r="I2308" t="n">
+        <v>4212800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
